--- a/case_studies/Final_results/1_1/Postprocess_1_1.xlsx
+++ b/case_studies/Final_results/1_1/Postprocess_1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghuysn\ESTD_VUBxUCL_VF\EnergyScope_multi_criteria_VUBxUCL_VF\case_studies\Final_results\1_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghuysn\GIT_Projects\EnergyScope_LCA\case_studies\Final_results\1_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858582D-6F08-48B3-AE79-5E2380F08B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035BC678-995C-47F1-8BC0-7D0C0CCB2B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4FCA5518-4D87-4C7C-AA83-1B6677BB544E}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{4FCA5518-4D87-4C7C-AA83-1B6677BB544E}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_results" sheetId="16" r:id="rId1"/>
@@ -589,7 +589,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -734,7 +734,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -759,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -799,7 +799,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -905,7 +905,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1047,7 +1047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCCB4F6-6B04-4971-8943-93041A9F3BE8}">
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -8524,7 +8524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB10A159-0F79-4C14-9A18-708153228CDB}">
   <dimension ref="B1:Q115"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="54" workbookViewId="0">
+    <sheetView topLeftCell="B42" zoomScale="54" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -15449,8 +15449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B49051-AF68-4150-80C2-BB5CCB2B0073}">
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="51" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20889,8 +20889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D42158-EFC4-4EF9-97FC-AEB717DE2332}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView topLeftCell="B112" zoomScale="77" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118:R118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20958,7 +20958,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <f>Mult_op!D3*LCA_op!E4</f>
@@ -21019,7 +21019,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <f>Mult_op!D4*LCA_op!E5</f>
@@ -21080,7 +21080,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <f>Mult_op!D5*LCA_op!E6</f>
@@ -21141,7 +21141,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <f>Mult_op!D6*LCA_op!E7</f>
@@ -21202,7 +21202,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <f>Mult_op!D7*LCA_op!E8</f>
@@ -21263,7 +21263,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <f>Mult_op!D8*LCA_op!E9</f>
@@ -21324,7 +21324,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <f>Mult_op!D9*LCA_op!E10</f>
@@ -21385,7 +21385,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <f>Mult_op!D10*LCA_op!E11</f>
@@ -21446,7 +21446,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <f>Mult_op!D11*LCA_op!E12</f>
@@ -21507,7 +21507,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <f>Mult_op!D12*LCA_op!E13</f>
@@ -21568,7 +21568,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <f>Mult_op!D13*LCA_op!E14</f>
@@ -21629,7 +21629,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <f>Mult_op!D14*LCA_op!E15</f>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <f>Mult_op!D15*LCA_op!E16</f>
@@ -21751,7 +21751,7 @@
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <f>Mult_op!D16*LCA_op!E17</f>
@@ -21812,7 +21812,7 @@
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <f>Mult_op!D17*LCA_op!E18</f>
@@ -21873,7 +21873,7 @@
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <f>Mult_op!D18*LCA_op!E19</f>
@@ -21934,7 +21934,7 @@
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <f>Mult_op!D19*LCA_op!E20</f>
@@ -21995,7 +21995,7 @@
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <f>Mult_op!D20*LCA_op!E21</f>
@@ -22056,7 +22056,7 @@
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <f>Mult_op!D21*LCA_op!E22</f>
@@ -22117,7 +22117,7 @@
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <f>Mult_op!D22*LCA_op!E23</f>
@@ -22178,7 +22178,7 @@
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <f>Mult_op!D23*LCA_op!E24</f>
@@ -22239,7 +22239,7 @@
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <f>Mult_op!D24*LCA_op!E25</f>
@@ -22300,7 +22300,7 @@
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <f>Mult_op!D25*LCA_op!E26</f>
@@ -22361,7 +22361,7 @@
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <f>Mult_op!D26*LCA_op!E27</f>
@@ -22422,7 +22422,7 @@
     </row>
     <row r="28" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <f>Mult_op!D27*LCA_op!E28</f>
@@ -22483,7 +22483,7 @@
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <f>Mult_op!D28*LCA_op!E29</f>
@@ -22544,7 +22544,7 @@
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <f>Mult_op!D29*LCA_op!E30</f>
@@ -22605,7 +22605,7 @@
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <f>Mult_op!D30*LCA_op!E31</f>
@@ -22666,7 +22666,7 @@
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <f>Mult_op!D31*LCA_op!E32</f>
@@ -22727,7 +22727,7 @@
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <f>Mult_op!D32*LCA_op!E33</f>
@@ -22788,7 +22788,7 @@
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <f>Mult_op!D33*LCA_op!E34</f>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <f>Mult_op!D34*LCA_op!E35</f>
@@ -22910,7 +22910,7 @@
     </row>
     <row r="36" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <f>Mult_op!D35*LCA_op!E36</f>
@@ -22971,7 +22971,7 @@
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <f>Mult_op!D36*LCA_op!E37</f>
@@ -23032,7 +23032,7 @@
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <f>Mult_op!D37*LCA_op!E38</f>
@@ -23093,7 +23093,7 @@
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <f>Mult_op!D38*LCA_op!E39</f>
@@ -23154,7 +23154,7 @@
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <f>Mult_op!D39*LCA_op!E40</f>
@@ -23215,7 +23215,7 @@
     </row>
     <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <f>Mult_op!D40*LCA_op!E41</f>
@@ -23276,7 +23276,7 @@
     </row>
     <row r="42" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E42">
         <f>Mult_op!D41*LCA_op!E42</f>
@@ -23337,7 +23337,7 @@
     </row>
     <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43">
         <f>Mult_op!D42*LCA_op!E43</f>
@@ -23398,7 +23398,7 @@
     </row>
     <row r="44" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E44">
         <f>Mult_op!D43*LCA_op!E44</f>
@@ -23459,7 +23459,7 @@
     </row>
     <row r="45" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <f>Mult_op!D44*LCA_op!E45</f>
@@ -23520,7 +23520,7 @@
     </row>
     <row r="46" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46">
         <f>Mult_op!D45*LCA_op!E46</f>
@@ -23581,7 +23581,7 @@
     </row>
     <row r="47" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E47">
         <f>Mult_op!D46*LCA_op!E47</f>
@@ -23642,7 +23642,7 @@
     </row>
     <row r="48" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E48">
         <f>Mult_op!D47*LCA_op!E48</f>
@@ -23703,7 +23703,7 @@
     </row>
     <row r="49" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E49">
         <f>Mult_op!D48*LCA_op!E49</f>
@@ -23764,7 +23764,7 @@
     </row>
     <row r="50" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E50">
         <f>Mult_op!D49*LCA_op!E50</f>
@@ -23825,7 +23825,7 @@
     </row>
     <row r="51" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51">
         <f>Mult_op!D50*LCA_op!E51</f>
@@ -23886,7 +23886,7 @@
     </row>
     <row r="52" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E52">
         <f>Mult_op!D51*LCA_op!E52</f>
@@ -23947,7 +23947,7 @@
     </row>
     <row r="53" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <f>Mult_op!D52*LCA_op!E53</f>
@@ -24008,7 +24008,7 @@
     </row>
     <row r="54" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <f>Mult_op!D53*LCA_op!E54</f>
@@ -24069,7 +24069,7 @@
     </row>
     <row r="55" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <f>Mult_op!D54*LCA_op!E55</f>
@@ -24130,7 +24130,7 @@
     </row>
     <row r="56" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E56">
         <f>Mult_op!D55*LCA_op!E56</f>
@@ -24191,7 +24191,7 @@
     </row>
     <row r="57" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E57">
         <f>Mult_op!D56*LCA_op!E57</f>
@@ -24252,7 +24252,7 @@
     </row>
     <row r="58" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E58">
         <f>Mult_op!D57*LCA_op!E58</f>
@@ -24313,7 +24313,7 @@
     </row>
     <row r="59" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E59">
         <f>Mult_op!D58*LCA_op!E59</f>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="60" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E60">
         <f>Mult_op!D59*LCA_op!E60</f>
@@ -24435,7 +24435,7 @@
     </row>
     <row r="61" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61">
         <f>Mult_op!D60*LCA_op!E61</f>
@@ -24496,7 +24496,7 @@
     </row>
     <row r="62" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E62">
         <f>Mult_op!D61*LCA_op!E62</f>
@@ -24557,7 +24557,7 @@
     </row>
     <row r="63" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E63">
         <f>Mult_op!D62*LCA_op!E63</f>
@@ -24618,7 +24618,7 @@
     </row>
     <row r="64" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64">
         <f>Mult_op!D63*LCA_op!E64</f>
@@ -24679,7 +24679,7 @@
     </row>
     <row r="65" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E65">
         <f>Mult_op!D64*LCA_op!E65</f>
@@ -24740,7 +24740,7 @@
     </row>
     <row r="66" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E66">
         <f>Mult_op!D65*LCA_op!E66</f>
@@ -24801,7 +24801,7 @@
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <f>Mult_op!D66*LCA_op!E67</f>
@@ -24862,7 +24862,7 @@
     </row>
     <row r="68" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E68">
         <f>Mult_op!D67*LCA_op!E68</f>
@@ -24923,7 +24923,7 @@
     </row>
     <row r="69" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E69">
         <f>Mult_op!D68*LCA_op!E69</f>
@@ -24984,7 +24984,7 @@
     </row>
     <row r="70" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70">
         <f>Mult_op!D69*LCA_op!E70</f>
@@ -25045,7 +25045,7 @@
     </row>
     <row r="71" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E71">
         <f>Mult_op!D70*LCA_op!E71</f>
@@ -25106,7 +25106,7 @@
     </row>
     <row r="72" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E72">
         <f>Mult_op!D71*LCA_op!E72</f>
@@ -25167,7 +25167,7 @@
     </row>
     <row r="73" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E73">
         <f>Mult_op!D72*LCA_op!E73</f>
@@ -25228,7 +25228,7 @@
     </row>
     <row r="74" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74">
         <f>Mult_op!D73*LCA_op!E74</f>
@@ -25289,7 +25289,7 @@
     </row>
     <row r="75" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E75">
         <f>Mult_op!D74*LCA_op!E75</f>
@@ -25350,7 +25350,7 @@
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E76">
         <f>Mult_op!D75*LCA_op!E76</f>
@@ -25411,7 +25411,7 @@
     </row>
     <row r="77" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E77">
         <f>Mult_op!D76*LCA_op!E77</f>
@@ -25472,7 +25472,7 @@
     </row>
     <row r="78" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E78">
         <f>Mult_op!D77*LCA_op!E78</f>
@@ -25533,7 +25533,7 @@
     </row>
     <row r="79" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79">
         <f>Mult_op!D78*LCA_op!E79</f>
@@ -25594,7 +25594,7 @@
     </row>
     <row r="80" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E80">
         <f>Mult_op!D79*LCA_op!E80</f>
@@ -25655,7 +25655,7 @@
     </row>
     <row r="81" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E81">
         <f>Mult_op!D80*LCA_op!E81</f>
@@ -25716,7 +25716,7 @@
     </row>
     <row r="82" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E82">
         <f>Mult_op!D81*LCA_op!E82</f>
@@ -25777,7 +25777,7 @@
     </row>
     <row r="83" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83">
         <f>Mult_op!D82*LCA_op!E83</f>
@@ -25838,7 +25838,7 @@
     </row>
     <row r="84" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E84">
         <f>Mult_op!D83*LCA_op!E84</f>
@@ -25899,7 +25899,7 @@
     </row>
     <row r="85" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E85">
         <f>Mult_op!D84*LCA_op!E85</f>
@@ -25960,7 +25960,7 @@
     </row>
     <row r="86" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E86">
         <f>Mult_op!D85*LCA_op!E86</f>
@@ -26021,7 +26021,7 @@
     </row>
     <row r="87" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E87">
         <f>Mult_op!D86*LCA_op!E87</f>
@@ -26082,7 +26082,7 @@
     </row>
     <row r="88" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E88">
         <f>Mult_op!D87*LCA_op!E88</f>
@@ -26143,7 +26143,7 @@
     </row>
     <row r="89" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E89">
         <f>Mult_op!D88*LCA_op!E89</f>
@@ -26204,7 +26204,7 @@
     </row>
     <row r="90" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E90">
         <f>Mult_op!D89*LCA_op!E90</f>
@@ -26265,7 +26265,7 @@
     </row>
     <row r="91" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E91">
         <f>Mult_op!D90*LCA_op!E91</f>
@@ -26326,7 +26326,7 @@
     </row>
     <row r="92" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E92">
         <f>Mult_op!D91*LCA_op!E92</f>
@@ -26387,7 +26387,7 @@
     </row>
     <row r="93" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E93">
         <f>Mult_op!D92*LCA_op!E93</f>
@@ -26448,7 +26448,7 @@
     </row>
     <row r="94" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E94">
         <f>Mult_op!D93*LCA_op!E94</f>
@@ -26509,7 +26509,7 @@
     </row>
     <row r="95" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E95">
         <f>Mult_op!D94*LCA_op!E95</f>
@@ -26570,7 +26570,7 @@
     </row>
     <row r="96" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E96">
         <f>Mult_op!D95*LCA_op!E96</f>
@@ -26631,7 +26631,7 @@
     </row>
     <row r="97" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E97">
         <f>Mult_op!D96*LCA_op!E97</f>
@@ -26692,7 +26692,7 @@
     </row>
     <row r="98" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E98">
         <f>Mult_op!D97*LCA_op!E98</f>
@@ -26753,7 +26753,7 @@
     </row>
     <row r="99" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E99">
         <f>Mult_op!D98*LCA_op!E99</f>
@@ -26814,7 +26814,7 @@
     </row>
     <row r="100" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E100">
         <f>Mult_op!D99*LCA_op!E100</f>
@@ -26875,7 +26875,7 @@
     </row>
     <row r="101" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E101">
         <f>Mult_op!D100*LCA_op!E101</f>
@@ -26936,7 +26936,7 @@
     </row>
     <row r="102" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E102">
         <f>Mult_op!D101*LCA_op!E102</f>
@@ -26997,7 +26997,7 @@
     </row>
     <row r="103" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E103">
         <f>Mult_op!D102*LCA_op!E103</f>
@@ -27058,7 +27058,7 @@
     </row>
     <row r="104" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E104">
         <f>Mult_op!D103*LCA_op!E104</f>
@@ -27119,7 +27119,7 @@
     </row>
     <row r="105" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E105">
         <f>Mult_op!D104*LCA_op!E105</f>
@@ -27180,7 +27180,7 @@
     </row>
     <row r="106" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E106">
         <f>Mult_op!D105*LCA_op!E106</f>
@@ -27241,7 +27241,7 @@
     </row>
     <row r="107" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E107">
         <f>Mult_op!D106*LCA_op!E107</f>
@@ -27302,7 +27302,7 @@
     </row>
     <row r="108" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E108">
         <f>Mult_op!D107*LCA_op!E108</f>
@@ -27363,7 +27363,7 @@
     </row>
     <row r="109" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E109">
         <f>Mult_op!D108*LCA_op!E109</f>
@@ -27424,7 +27424,7 @@
     </row>
     <row r="110" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E110">
         <f>Mult_op!D109*LCA_op!E110</f>
@@ -27485,7 +27485,7 @@
     </row>
     <row r="111" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E111">
         <f>Mult_op!D110*LCA_op!E111</f>
@@ -27546,7 +27546,7 @@
     </row>
     <row r="112" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E112">
         <f>Mult_op!D111*LCA_op!E112</f>
@@ -27607,7 +27607,7 @@
     </row>
     <row r="113" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E113">
         <f>Mult_op!D112*LCA_op!E113</f>
@@ -27668,7 +27668,7 @@
     </row>
     <row r="114" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E114">
         <f>Mult_op!D113*LCA_op!E114</f>
@@ -27729,7 +27729,7 @@
     </row>
     <row r="115" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E115">
         <f>Mult_op!D114*LCA_op!E115</f>
@@ -27790,7 +27790,7 @@
     </row>
     <row r="116" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E116">
         <f>Mult_op!D115*LCA_op!E116</f>
@@ -27917,7 +27917,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L115"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29409,7 +29409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BF5B8D-4116-44B2-BBD0-F8EC1D64D4E0}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="B89" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
